--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgal</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H2">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I2">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J2">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N2">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O2">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P2">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q2">
-        <v>0.7319954352479997</v>
+        <v>0.6709296700044444</v>
       </c>
       <c r="R2">
-        <v>6.587958917231998</v>
+        <v>6.03836703004</v>
       </c>
       <c r="S2">
-        <v>0.007623533611331209</v>
+        <v>0.002748927629576295</v>
       </c>
       <c r="T2">
-        <v>0.007623533611331211</v>
+        <v>0.002748927629576295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H3">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I3">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J3">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.559931</v>
       </c>
       <c r="O3">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P3">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q3">
-        <v>0.8201054711663333</v>
+        <v>0.9835394420363333</v>
       </c>
       <c r="R3">
-        <v>7.380949240496999</v>
+        <v>8.851854978326999</v>
       </c>
       <c r="S3">
-        <v>0.008541175700303308</v>
+        <v>0.004029749864801506</v>
       </c>
       <c r="T3">
-        <v>0.008541175700303308</v>
+        <v>0.004029749864801506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H4">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I4">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J4">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N4">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O4">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P4">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q4">
-        <v>4.160665300869777</v>
+        <v>50.12812203131889</v>
       </c>
       <c r="R4">
-        <v>37.445987707828</v>
+        <v>451.15309828187</v>
       </c>
       <c r="S4">
-        <v>0.04333219886259789</v>
+        <v>0.2053845370555037</v>
       </c>
       <c r="T4">
-        <v>0.0433321988625979</v>
+        <v>0.2053845370555037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H5">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I5">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J5">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N5">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O5">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P5">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q5">
-        <v>0.07470229555599998</v>
+        <v>0.1786312731524445</v>
       </c>
       <c r="R5">
-        <v>0.6723206600039999</v>
+        <v>1.607681458372</v>
       </c>
       <c r="S5">
-        <v>0.0007780041153150348</v>
+        <v>0.0007318866108155448</v>
       </c>
       <c r="T5">
-        <v>0.0007780041153150349</v>
+        <v>0.0007318866108155448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H6">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I6">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J6">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N6">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O6">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P6">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q6">
-        <v>37.92412140869255</v>
+        <v>44.79015496007188</v>
       </c>
       <c r="R6">
-        <v>341.3170926782329</v>
+        <v>403.1113946406469</v>
       </c>
       <c r="S6">
-        <v>0.394969422372724</v>
+        <v>0.1835138614482941</v>
       </c>
       <c r="T6">
-        <v>0.394969422372724</v>
+        <v>0.1835138614482941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>4.075965</v>
       </c>
       <c r="I7">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J7">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N7">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O7">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P7">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q7">
-        <v>0.6305680893599999</v>
+        <v>0.4819239862</v>
       </c>
       <c r="R7">
-        <v>5.675112804239999</v>
+        <v>4.3373158758</v>
       </c>
       <c r="S7">
-        <v>0.006567195356676231</v>
+        <v>0.001974535067158305</v>
       </c>
       <c r="T7">
-        <v>0.006567195356676232</v>
+        <v>0.001974535067158305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>4.075965</v>
       </c>
       <c r="I8">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J8">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.559931</v>
       </c>
       <c r="O8">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P8">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q8">
         <v>0.706469350935</v>
@@ -948,10 +948,10 @@
         <v>6.358224158415</v>
       </c>
       <c r="S8">
-        <v>0.007357686377379678</v>
+        <v>0.002894540523481677</v>
       </c>
       <c r="T8">
-        <v>0.007357686377379678</v>
+        <v>0.002894540523481677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>4.075965</v>
       </c>
       <c r="I9">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J9">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N9">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O9">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P9">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q9">
-        <v>3.58415181694</v>
+        <v>36.00667174235</v>
       </c>
       <c r="R9">
-        <v>32.25736635246</v>
+        <v>324.06004568115</v>
       </c>
       <c r="S9">
-        <v>0.03732796753752786</v>
+        <v>0.1475262448908755</v>
       </c>
       <c r="T9">
-        <v>0.03732796753752787</v>
+        <v>0.1475262448908755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1042,40 +1042,40 @@
         <v>4.075965</v>
       </c>
       <c r="I10">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J10">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N10">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O10">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P10">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q10">
-        <v>0.06435133541999999</v>
+        <v>0.12830956666</v>
       </c>
       <c r="R10">
-        <v>0.57916201878</v>
+        <v>1.15478609994</v>
       </c>
       <c r="S10">
-        <v>0.0006702016773399805</v>
+        <v>0.0005257089210681336</v>
       </c>
       <c r="T10">
-        <v>0.0006702016773399806</v>
+        <v>0.0005257089210681336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>4.075965</v>
       </c>
       <c r="I11">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J11">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N11">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O11">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P11">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q11">
-        <v>32.669248503215</v>
+        <v>32.172448150535</v>
       </c>
       <c r="R11">
-        <v>294.023236528935</v>
+        <v>289.552033354815</v>
       </c>
       <c r="S11">
-        <v>0.3402413485499559</v>
+        <v>0.1318166949324667</v>
       </c>
       <c r="T11">
-        <v>0.3402413485499559</v>
+        <v>0.1318166949324667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.528653</v>
+        <v>0.813809</v>
       </c>
       <c r="H12">
-        <v>1.585959</v>
+        <v>2.441427</v>
       </c>
       <c r="I12">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="J12">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N12">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O12">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P12">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q12">
-        <v>0.245354201136</v>
+        <v>0.2886634776933333</v>
       </c>
       <c r="R12">
-        <v>2.208187810224</v>
+        <v>2.59797129924</v>
       </c>
       <c r="S12">
-        <v>0.002555297354290058</v>
+        <v>0.001182709671306574</v>
       </c>
       <c r="T12">
-        <v>0.002555297354290059</v>
+        <v>0.001182709671306574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.528653</v>
+        <v>0.813809</v>
       </c>
       <c r="H13">
-        <v>1.585959</v>
+        <v>2.441427</v>
       </c>
       <c r="I13">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="J13">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.559931</v>
       </c>
       <c r="O13">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P13">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q13">
-        <v>0.274887400981</v>
+        <v>0.423161962393</v>
       </c>
       <c r="R13">
-        <v>2.473986608829</v>
+        <v>3.808457661537</v>
       </c>
       <c r="S13">
-        <v>0.002862877607973252</v>
+        <v>0.001733775777422598</v>
       </c>
       <c r="T13">
-        <v>0.002862877607973252</v>
+        <v>0.001733775777422598</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.528653</v>
+        <v>0.813809</v>
       </c>
       <c r="H14">
-        <v>1.585959</v>
+        <v>2.441427</v>
       </c>
       <c r="I14">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="J14">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N14">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O14">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P14">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q14">
-        <v>1.394594367577333</v>
+        <v>21.56732468799667</v>
       </c>
       <c r="R14">
-        <v>12.551349308196</v>
+        <v>194.10592219197</v>
       </c>
       <c r="S14">
-        <v>0.01452432149634507</v>
+        <v>0.08836546866452373</v>
       </c>
       <c r="T14">
-        <v>0.01452432149634508</v>
+        <v>0.08836546866452372</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.528653</v>
+        <v>0.813809</v>
       </c>
       <c r="H15">
-        <v>1.585959</v>
+        <v>2.441427</v>
       </c>
       <c r="I15">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="J15">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N15">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O15">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P15">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q15">
-        <v>0.025039120692</v>
+        <v>0.07685503688133334</v>
       </c>
       <c r="R15">
-        <v>0.225352086228</v>
+        <v>0.6916953319320001</v>
       </c>
       <c r="S15">
-        <v>0.0002607756401226306</v>
+        <v>0.0003148898368942349</v>
       </c>
       <c r="T15">
-        <v>0.0002607756401226307</v>
+        <v>0.0003148898368942349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.813809</v>
+      </c>
+      <c r="H16">
+        <v>2.441427</v>
+      </c>
+      <c r="I16">
+        <v>0.1705525852430403</v>
+      </c>
+      <c r="J16">
+        <v>0.1705525852430403</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>23.67963033333333</v>
+      </c>
+      <c r="N16">
+        <v>71.03889099999999</v>
+      </c>
+      <c r="O16">
+        <v>0.4629407474555717</v>
+      </c>
+      <c r="P16">
+        <v>0.4629407474555717</v>
+      </c>
+      <c r="Q16">
+        <v>19.27069628193967</v>
+      </c>
+      <c r="R16">
+        <v>173.436266537457</v>
+      </c>
+      <c r="S16">
+        <v>0.07895574129289319</v>
+      </c>
+      <c r="T16">
+        <v>0.07895574129289321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.122896</v>
+      </c>
+      <c r="I17">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J17">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3547066666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.06412</v>
+      </c>
+      <c r="O17">
+        <v>0.006934574868045491</v>
+      </c>
+      <c r="P17">
+        <v>0.00693457486804549</v>
+      </c>
+      <c r="Q17">
+        <v>0.2510017879466667</v>
+      </c>
+      <c r="R17">
+        <v>2.25901609152</v>
+      </c>
+      <c r="S17">
+        <v>0.001028402500004317</v>
+      </c>
+      <c r="T17">
+        <v>0.001028402500004317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.122896</v>
+      </c>
+      <c r="I18">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J18">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.519977</v>
+      </c>
+      <c r="N18">
+        <v>1.559931</v>
+      </c>
+      <c r="O18">
+        <v>0.01016563762403213</v>
+      </c>
+      <c r="P18">
+        <v>0.01016563762403213</v>
+      </c>
+      <c r="Q18">
+        <v>0.367952364464</v>
+      </c>
+      <c r="R18">
+        <v>3.311571280176</v>
+      </c>
+      <c r="S18">
+        <v>0.001507571458326349</v>
+      </c>
+      <c r="T18">
+        <v>0.001507571458326349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.528653</v>
-      </c>
-      <c r="H16">
-        <v>1.585959</v>
-      </c>
-      <c r="I16">
-        <v>0.1525912658388489</v>
-      </c>
-      <c r="J16">
-        <v>0.1525912658388489</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>24.04528633333333</v>
-      </c>
-      <c r="N16">
-        <v>72.135859</v>
-      </c>
-      <c r="O16">
-        <v>0.8675987646627978</v>
-      </c>
-      <c r="P16">
-        <v>0.8675987646627977</v>
-      </c>
-      <c r="Q16">
-        <v>12.71161275597567</v>
-      </c>
-      <c r="R16">
-        <v>114.404514803781</v>
-      </c>
-      <c r="S16">
-        <v>0.1323879937401179</v>
-      </c>
-      <c r="T16">
-        <v>0.1323879937401179</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.122896</v>
+      </c>
+      <c r="I19">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J19">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>26.50170333333334</v>
+      </c>
+      <c r="N19">
+        <v>79.50511</v>
+      </c>
+      <c r="O19">
+        <v>0.5181127482682332</v>
+      </c>
+      <c r="P19">
+        <v>0.5181127482682331</v>
+      </c>
+      <c r="Q19">
+        <v>18.75345333317333</v>
+      </c>
+      <c r="R19">
+        <v>168.78107999856</v>
+      </c>
+      <c r="S19">
+        <v>0.07683649765733022</v>
+      </c>
+      <c r="T19">
+        <v>0.07683649765733022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.122896</v>
+      </c>
+      <c r="I20">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J20">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.09443866666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.283316</v>
+      </c>
+      <c r="O20">
+        <v>0.001846291784117559</v>
+      </c>
+      <c r="P20">
+        <v>0.001846291784117558</v>
+      </c>
+      <c r="Q20">
+        <v>0.06682782257066666</v>
+      </c>
+      <c r="R20">
+        <v>0.601450403136</v>
+      </c>
+      <c r="S20">
+        <v>0.0002738064153396451</v>
+      </c>
+      <c r="T20">
+        <v>0.0002738064153396451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.122896</v>
+      </c>
+      <c r="I21">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J21">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>23.67963033333333</v>
+      </c>
+      <c r="N21">
+        <v>71.03889099999999</v>
+      </c>
+      <c r="O21">
+        <v>0.4629407474555717</v>
+      </c>
+      <c r="P21">
+        <v>0.4629407474555717</v>
+      </c>
+      <c r="Q21">
+        <v>16.75646417203733</v>
+      </c>
+      <c r="R21">
+        <v>150.808177548336</v>
+      </c>
+      <c r="S21">
+        <v>0.06865444978191762</v>
+      </c>
+      <c r="T21">
+        <v>0.06865444978191762</v>
       </c>
     </row>
   </sheetData>
